--- a/TestFile/temp.xlsx
+++ b/TestFile/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X178"/>
+  <dimension ref="A1:X152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,10 +569,8 @@
           <t>N</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D2" t="n">
+        <v>5622</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -637,18 +635,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5622</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -665,17 +661,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040100
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x1
-iwpriv wlan0 set_tx_mode 0x0
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x20
-iwpriv wlan0 set_tx_pwr 0x15
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 1 1
+iwnpi wlan0 set_rate 6
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -721,18 +714,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5622</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -749,17 +740,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6
-iwpriv wlan0 set_tx_mode 0x0
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x20
-iwpriv wlan0 set_tx_pwr 0x15
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 6 6
+iwnpi wlan0 set_rate 6
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -805,18 +793,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5622</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -833,17 +819,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040B00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xB
-iwpriv wlan0 set_tx_mode 0x0
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x20
-iwpriv wlan0 set_tx_pwr 0x15
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 11 11
+iwnpi wlan0 set_rate 6
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -889,18 +872,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5622</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -917,17 +898,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040D00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xD
-iwpriv wlan0 set_tx_mode 0x0
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x20
-iwpriv wlan0 set_tx_pwr 0x15
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 13 13
+iwnpi wlan0 set_rate 6
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -973,18 +951,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5622</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1001,17 +977,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040100
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x1
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0x12
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 1 1
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1057,18 +1030,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5622</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1085,17 +1056,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0x12
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 6 6
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1141,18 +1109,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5622</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1169,17 +1135,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040B00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xB
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0x12
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 11 11
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1225,18 +1188,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5622</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1253,17 +1214,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040D00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xD
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0x12
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 13 13
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1309,18 +1267,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5622</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1337,17 +1293,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040100
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x1
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0x11
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 1 1
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1393,18 +1346,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5622</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1421,17 +1372,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0x11
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 6 6
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1477,18 +1425,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5622</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1505,17 +1451,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040B00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xB
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0x11
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 11 11
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1561,18 +1504,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5622</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1589,17 +1530,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040D00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xD
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0x11
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 13 13
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1645,18 +1583,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5622</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1673,17 +1609,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00050300
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x3
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0x10
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 1 3
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1729,18 +1662,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5622</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1757,17 +1688,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00050600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0x10
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 4 6
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1813,18 +1741,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5622</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1841,17 +1767,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00050B00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xB
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0x10
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 9 11
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1897,18 +1820,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5622</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1917,25 +1838,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_20M_MCS11_CH1</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH36</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2412</v>
+        <v>5180</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040100
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x1
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 36 36
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1981,18 +1899,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5622</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2001,25 +1917,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_20M_MCS11_CH6</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH40</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2437</v>
+        <v>5200</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 40 40
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -2065,18 +1978,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5622</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2085,25 +1996,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_20M_MCS11_CH11</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH44</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2462</v>
+        <v>5220</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040B00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xB
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 44 44
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -2149,18 +2057,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5622</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2169,25 +2075,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_20M_MCS11_CH13</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH48</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2472</v>
+        <v>5240</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00040D00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xD
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 48 48
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2233,18 +2136,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5622</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2253,25 +2154,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_40M_MCS11_CH3</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH52</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2422</v>
+        <v>5260</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00050300
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x3
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x2000
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 52 52
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2317,18 +2215,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5622</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2337,25 +2233,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_40M_MCS11_CH6</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH56</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2437</v>
+        <v>5280</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00050600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x2000
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 56 56
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2401,18 +2294,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5622</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2421,25 +2312,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_40M_MCS11_CH11</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH60</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2462</v>
+        <v>5300</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00050B00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xB
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x2000
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 60 60
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2485,18 +2373,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5622</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2505,25 +2391,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH36</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH64</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5180</v>
+        <v>5320</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00142400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x24
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 64 64
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2569,18 +2452,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5622</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2589,25 +2470,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH40</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH100</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00142800
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x28
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 100 100
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2653,18 +2531,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5622</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2673,25 +2549,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH44</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH104</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5220</v>
+        <v>5520</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00142C00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x2C
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 104 104
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2737,18 +2610,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5622</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2757,25 +2628,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH48</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH108</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5240</v>
+        <v>5540</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00143000
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x30
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 108 108
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2821,18 +2689,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5622</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2841,25 +2707,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH52</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH112</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5260</v>
+        <v>5560</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00143400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x34
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 112 112
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2905,18 +2768,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5622</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2925,25 +2786,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH56</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH116</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5280</v>
+        <v>5580</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00143800
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x38
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 116 116
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2989,18 +2847,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5622</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3009,25 +2865,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH60</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH132</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5300</v>
+        <v>5660</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00143C00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x3C
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 132 132
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -3073,18 +2926,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5622</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3093,25 +2944,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH64</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH136</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5320</v>
+        <v>5680</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00144000
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x40
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 136 136
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -3157,18 +3005,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3177,25 +3023,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH100</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH140</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00146400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x64
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 140 140
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3241,18 +3084,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5622</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3261,25 +3102,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH104</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH149</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5520</v>
+        <v>5745</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00146800
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x68
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 149 149
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3325,18 +3163,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5622</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3345,25 +3181,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH108</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH153</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5540</v>
+        <v>5765</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00146C00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6C
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 153 153
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3409,18 +3242,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5622</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3429,25 +3260,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH112</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH157</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5560</v>
+        <v>5785</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00147000
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x70
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 157 157
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3493,18 +3321,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>5622</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3513,25 +3339,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH116</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH161</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5580</v>
+        <v>5805</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00147400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x74
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 161 161
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3577,18 +3400,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5622</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3597,25 +3418,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH132</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH165</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5660</v>
+        <v>5825</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00148400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x84
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 165 165
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3661,18 +3479,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5622</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3681,25 +3497,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH136</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH36</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5680</v>
+        <v>5180</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00148800
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x88
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 36 36
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3745,18 +3558,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>5622</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3765,25 +3576,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH140</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH40</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00148C00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x8C
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 40 40
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3829,18 +3637,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5622</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3849,25 +3655,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH149</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH44</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5745</v>
+        <v>5220</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00149500
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x95
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 44 44
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3913,18 +3716,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5622</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3933,25 +3734,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH153</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH48</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5765</v>
+        <v>5240</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00149900
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x99
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 48 48
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3997,18 +3795,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>5622</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4017,25 +3813,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH157</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH52</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5785</v>
+        <v>5260</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00149D00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x9D
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 52 52
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -4081,18 +3874,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5622</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4101,25 +3892,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH161</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH56</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5805</v>
+        <v>5280</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x0014A100
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xA1
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 56 56
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -4165,18 +3953,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5622</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4185,25 +3971,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH165</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH60</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5825</v>
+        <v>5300</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x0014A500
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xA5
-iwpriv wlan0 set_tx_mode 0x1
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 54
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 60 60
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -4249,18 +4032,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5622</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4269,25 +4050,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH36</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH64</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5180</v>
+        <v>5320</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00142400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x24
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 64 64
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -4333,18 +4111,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5622</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4353,25 +4129,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH40</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH100</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00142800
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x28
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 100 100
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -4417,18 +4190,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5622</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4437,25 +4208,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH44</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH104</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5220</v>
+        <v>5520</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00142C00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x2C
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 104 104
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4501,18 +4269,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5622</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4521,25 +4287,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH48</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH108</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5240</v>
+        <v>5540</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00143000
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x30
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 108 108
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4585,18 +4348,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5622</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4605,25 +4366,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH52</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH112</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5260</v>
+        <v>5560</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00143400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x34
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 112 112
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4669,18 +4427,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>5622</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4689,25 +4445,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH56</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH116</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5280</v>
+        <v>5580</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00143800
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x38
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 116 116
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4753,18 +4506,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>5622</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4773,25 +4524,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH60</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH132</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5300</v>
+        <v>5660</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00143C00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x3C
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 132 132
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4837,18 +4585,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5622</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4857,25 +4603,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH64</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH136</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5320</v>
+        <v>5680</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00144000
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x40
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 136 136
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4921,18 +4664,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>5622</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4941,25 +4682,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH100</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH140</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00146400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x64
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 140 140
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -5005,18 +4743,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>5622</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -5025,25 +4761,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH104</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH149</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5520</v>
+        <v>5745</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00146800
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x68
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 149 149
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -5089,18 +4822,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>5622</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -5109,25 +4840,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH108</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH153</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5540</v>
+        <v>5765</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00146C00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6C
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 153 153
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -5173,18 +4901,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5622</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -5193,25 +4919,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH112</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH157</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5560</v>
+        <v>5785</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00147000
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x70
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 157 157
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -5257,18 +4980,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>5622</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -5277,25 +4998,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH116</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH161</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5580</v>
+        <v>5805</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00147400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x74
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 161 161
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -5341,18 +5059,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5622</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -5361,25 +5077,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH132</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH165</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5660</v>
+        <v>5825</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00148400
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x84
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 165 165
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -5425,18 +5138,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>5622</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -5445,25 +5156,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH136</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH38</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5680</v>
+        <v>5190</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00148800
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x88
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 36 38
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -5509,18 +5217,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>5622</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -5529,25 +5235,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH140</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH46</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5700</v>
+        <v>5230</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00148C00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x8C
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 44 46
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5593,18 +5296,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5622</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -5613,25 +5314,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH149</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH54</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5745</v>
+        <v>5270</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00149500
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x95
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 52 54
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5677,18 +5375,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>5622</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5697,25 +5393,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH153</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH62</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5765</v>
+        <v>5310</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00149900
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x99
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 60 62
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5761,18 +5454,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>5622</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -5781,25 +5472,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH157</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH102</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5785</v>
+        <v>5510</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00149D00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x9D
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 100 102
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5845,18 +5533,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>5622</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -5865,25 +5551,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH161</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH110</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5805</v>
+        <v>5550</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x0014A100
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xA1
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 108 110
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5929,18 +5612,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5622</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -5949,25 +5630,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH165</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH118</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5825</v>
+        <v>5590</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x0014A500
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0xA5
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x0
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x400
-iwpriv wlan0 set_tx_pwr 0xD
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 116 118
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -6013,18 +5691,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5622</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -6033,25 +5709,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH38</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH126</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5190</v>
+        <v>5630</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00152600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x26
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 124 126
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -6097,18 +5770,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5622</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -6117,25 +5788,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH46</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH134</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5230</v>
+        <v>5670</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00152E00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x2E
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 132 134
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -6181,18 +5849,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>5622</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -6201,25 +5867,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH54</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH142</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5270</v>
+        <v>5710</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00153600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x36
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 140 142
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -6265,18 +5928,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>5622</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -6285,25 +5946,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH62</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH151</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5310</v>
+        <v>5755</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00153E00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x3E
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 149 151
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -6349,18 +6007,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>5622</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -6369,25 +6025,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH102</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH159</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5510</v>
+        <v>5795</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00156600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x66
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 157 159
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -6433,18 +6086,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>5622</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -6453,25 +6104,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH110</t>
+          <t>ANT1_5G_11ac_80M_VHT_MCS9_CH42</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5550</v>
+        <v>5210</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00156E00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6E
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 36 42
+iwnpi wlan0 set_rate 40
+iwnpi wlan0 set_cbw 2
+iwnpi wlan0 set_sbw 2
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -6517,18 +6165,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5622</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -6537,25 +6183,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH118</t>
+          <t>ANT1_5G_11ac_80M_VHT_MCS9_CH58</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5590</v>
+        <v>5290</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00157600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x76
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 52 58
+iwnpi wlan0 set_rate 40
+iwnpi wlan0 set_cbw 2
+iwnpi wlan0 set_sbw 2
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -6601,18 +6244,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5622</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -6621,25 +6262,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH126</t>
+          <t>ANT1_5G_11ac_80M_VHT_MCS9_CH106</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5630</v>
+        <v>5530</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00157E00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x7E
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 100 106
+iwnpi wlan0 set_rate 40
+iwnpi wlan0 set_cbw 2
+iwnpi wlan0 set_sbw 2
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6685,18 +6323,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>5622</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -6705,25 +6341,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH134</t>
+          <t>ANT1_5G_11ac_80M_VHT_MCS9_CH122</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5670</v>
+        <v>5610</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00158600
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x86
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 116 122
+iwnpi wlan0 set_rate 40
+iwnpi wlan0 set_cbw 2
+iwnpi wlan0 set_sbw 2
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6769,18 +6402,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>5622</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -6789,25 +6420,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH142</t>
+          <t>ANT1_5G_11ac_80M_VHT_MCS9_CH138</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5710</v>
+        <v>5690</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00158E00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x8E
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 132 138
+iwnpi wlan0 set_rate 40
+iwnpi wlan0 set_cbw 2
+iwnpi wlan0 set_sbw 2
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6853,18 +6481,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>5622</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -6873,25 +6499,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH151</t>
+          <t>ANT1_5G_11ac_80M_VHT_MCS9_CH155</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5755</v>
+        <v>5775</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00159700
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x97
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 149 155
+iwnpi wlan0 set_rate 40
+iwnpi wlan0 set_cbw 2
+iwnpi wlan0 set_sbw 2
+iwnpi wlan0 tx_start</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6937,45 +6560,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>5622</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH159</t>
+          <t>ANT1_2.4G_11b_20M_11Mbps_CH1</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5795</v>
+        <v>2412</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00159F00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x9F
-iwpriv wlan0 set_tx_mode 0x2
-iwpriv wlan0 set_tx_bw 0x1
-iwpriv wlan0 set_tx_rate 7
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xC
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 6 6
+iwnpi wlan0 set_rate 6
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -7021,45 +6639,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5622</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH42</t>
+          <t>ANT1_2.4G_11b_20M_11Mbps_CH6</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5210</v>
+        <v>2437</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00162A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x2A
-iwpriv wlan0 set_tx_mode 0x3
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 9
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xB
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 1 1
+iwnpi wlan0 set_rate 6
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -7105,45 +6718,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>5622</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH58</t>
+          <t>ANT1_2.4G_11b_20M_11Mbps_CH11</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5290</v>
+        <v>2462</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00163A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x3A
-iwpriv wlan0 set_tx_mode 0x3
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 9
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xB
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 11 11
+iwnpi wlan0 set_rate 6
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -7189,45 +6797,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>5622</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH106</t>
+          <t>ANT1_2.4G_11b_20M_11Mbps_CH13</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5530</v>
+        <v>2472</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00166A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6A
-iwpriv wlan0 set_tx_mode 0x3
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 9
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xB
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 13 13
+iwnpi wlan0 set_rate 6
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -7273,45 +6876,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>5622</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH122</t>
+          <t>ANT1_2.4G_11g_20M_54Mbps_CH1</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5610</v>
+        <v>2412</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00167A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x7A
-iwpriv wlan0 set_tx_mode 0x3
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 9
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xB
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 1 1
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -7357,45 +6955,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>5622</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH138</t>
+          <t>ANT1_2.4G_11g_20M_54Mbps_CH6</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5690</v>
+        <v>2437</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00168A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x8A
-iwpriv wlan0 set_tx_mode 0x3
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 9
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xB
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 6 6
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -7441,45 +7034,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>5622</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH155</t>
+          <t>ANT1_2.4G_11g_20M_54Mbps_CH11</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5775</v>
+        <v>2462</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00169B00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x9B
-iwpriv wlan0 set_tx_mode 0x3
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 9
-iwpriv wlan0 set_tx_len 0x1000
-iwpriv wlan0 set_tx_pwr 0xB
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 11 11
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -7525,45 +7113,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>5622</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH42</t>
+          <t>ANT1_2.4G_11g_20M_54Mbps_CH13</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5210</v>
+        <v>2472</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00162A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x2A
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x3320
-iwpriv wlan0 set_tx_pwr 0xA
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 13 13
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -7609,45 +7192,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>5622</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH58</t>
+          <t>ANT1_2.4G_11n_20M_MCS7_CH1</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5290</v>
+        <v>2412</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00163A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x3A
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x3320
-iwpriv wlan0 set_tx_pwr 0xA
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 1 1
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -7693,45 +7271,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>5622</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH106</t>
+          <t>ANT1_2.4G_11n_20M_MCS7_CH3</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5530</v>
+        <v>2422</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00166A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x6A
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x3320
-iwpriv wlan0 set_tx_pwr 0xA
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 3 3
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7777,45 +7350,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>5622</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH122</t>
+          <t>ANT1_2.4G_11n_20M_MCS7_CH6</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5610</v>
+        <v>2437</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00167A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x7A
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x3320
-iwpriv wlan0 set_tx_pwr 0xA
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 6 6
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7861,45 +7429,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>5622</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH138</t>
+          <t>ANT1_2.4G_11n_20M_MCS7_CH9</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5690</v>
+        <v>2452</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00168A00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x8A
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x3320
-iwpriv wlan0 set_tx_pwr 0xA
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 9 9
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7945,45 +7508,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>5622</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>WIFI_TX</t>
+          <t>WIFI_RX</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH155</t>
+          <t>ANT1_2.4G_11n_20M_MCS7_CH11</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5775</v>
+        <v>2462</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 pt_tx_end
-iwpriv wlan0 set_pt_cali 0x00169B00
-sleep 0.2
-iwpriv wlan0 set_tx_path 0x1 0x9B
-iwpriv wlan0 set_tx_mode 0x4
-iwpriv wlan0 set_tx_bw 0x2
-iwpriv wlan0 set_tx_rate 11
-iwpriv wlan0 set_tx_len 0x3320
-iwpriv wlan0 set_tx_pwr 0xA
-iwpriv wlan0 pt_tx_start</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 11 11
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -8037,10 +7595,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D91" t="n">
+        <v>5622</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8049,17 +7605,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11b_20M_11Mbps_CH1</t>
+          <t>ANT1_2.4G_11n_20M_MCS7_CH13</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2412</v>
+        <v>2472</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040100
-iwpriv wlan0 pt_set_rx 0x1 0x1</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 13 13
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -8113,10 +7674,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D92" t="n">
+        <v>5622</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8125,17 +7684,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11b_20M_11Mbps_CH6</t>
+          <t>ANT1_2.4G_11n_40M_MCS7_CH3</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2437</v>
+        <v>2422</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040600
-iwpriv wlan0 pt_set_rx 0x1 0x6</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 1 3
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -8189,10 +7753,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D93" t="n">
+        <v>5622</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -8201,17 +7763,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11b_20M_11Mbps_CH11</t>
+          <t>ANT1_2.4G_11n_40M_MCS7_CH4</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2462</v>
+        <v>2427</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040B00
-iwpriv wlan0 pt_set_rx 0x1 0xB</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 2 4
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -8265,10 +7832,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D94" t="n">
+        <v>5622</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -8277,17 +7842,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11b_20M_11Mbps_CH13</t>
+          <t>ANT1_2.4G_11n_40M_MCS7_CH5</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2472</v>
+        <v>2432</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040D00
-iwpriv wlan0 pt_set_rx 0x1 0xD</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 3 5
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -8341,10 +7911,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D95" t="n">
+        <v>5622</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -8353,17 +7921,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11g_20M_54Mbps_CH1</t>
+          <t>ANT1_2.4G_11n_40M_MCS7_CH6</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2412</v>
+        <v>2437</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040100
-iwpriv wlan0 pt_set_rx 0x1 0x1</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 4 6
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -8417,10 +7990,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D96" t="n">
+        <v>5622</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -8429,17 +8000,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11g_20M_54Mbps_CH6</t>
+          <t>ANT1_2.4G_11n_40M_MCS7_CH7</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2437</v>
+        <v>2442</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040600
-iwpriv wlan0 pt_set_rx 0x1 0x6</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 5 7
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -8493,10 +8069,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D97" t="n">
+        <v>5622</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -8505,17 +8079,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11g_20M_54Mbps_CH11</t>
+          <t>ANT1_2.4G_11n_40M_MCS7_CH8</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2462</v>
+        <v>2447</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040B00
-iwpriv wlan0 pt_set_rx 0x1 0xB</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 6 8
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -8569,10 +8148,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D98" t="n">
+        <v>5622</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -8581,17 +8158,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11g_20M_54Mbps_CH13</t>
+          <t>ANT1_2.4G_11n_40M_MCS7_CH9</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2472</v>
+        <v>2452</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040D00
-iwpriv wlan0 pt_set_rx 0x1 0xD</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 7 9
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -8645,10 +8227,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D99" t="n">
+        <v>5622</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -8657,17 +8237,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11n_20M_MCS7_CH1</t>
+          <t>ANT1_2.4G_11n_40M_MCS7_CH10</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2412</v>
+        <v>2457</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040100
-iwpriv wlan0 pt_set_rx 0x1 0x1</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 8 10
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -8721,10 +8306,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D100" t="n">
+        <v>5622</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -8733,17 +8316,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11n_20M_MCS7_CH6</t>
+          <t>ANT1_2.4G_11n_40M_MCS7_CH11</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2437</v>
+        <v>2462</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040600
-iwpriv wlan0 pt_set_rx 0x1 0x6</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 9 11
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -8797,10 +8385,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D101" t="n">
+        <v>5622</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -8809,17 +8395,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11n_20M_MCS7_CH11</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH36</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2462</v>
+        <v>5180</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040B00
-iwpriv wlan0 pt_set_rx 0x1 0xB</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 36 36
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -8873,10 +8464,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D102" t="n">
+        <v>5622</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -8885,17 +8474,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11n_20M_MCS7_CH13</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH40</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2472</v>
+        <v>5200</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040D00
-iwpriv wlan0 pt_set_rx 0x1 0xD</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 40 40
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -8949,10 +8543,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D103" t="n">
+        <v>5622</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -8961,17 +8553,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11n_40M_MCS7_CH3</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH44</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2422</v>
+        <v>5220</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00050300
-iwpriv wlan0 pt_set_rx 0x1 0x3</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 44 44
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -9025,10 +8622,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D104" t="n">
+        <v>5622</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -9037,17 +8632,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11n_40M_MCS7_CH6</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH48</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2437</v>
+        <v>5240</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00050600
-iwpriv wlan0 pt_set_rx 0x1 0x6</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 48 48
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -9101,10 +8701,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D105" t="n">
+        <v>5622</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -9113,17 +8711,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11n_40M_MCS7_CH11</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH52</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2462</v>
+        <v>5260</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00050B00
-iwpriv wlan0 pt_set_rx 0x1 0xB</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 52 52
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -9177,10 +8780,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D106" t="n">
+        <v>5622</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -9189,17 +8790,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_20M_MCS11_CH1</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH56</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2412</v>
+        <v>5280</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040100
-iwpriv wlan0 pt_set_rx 0x1 0x1</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 56 56
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -9253,10 +8859,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D107" t="n">
+        <v>5622</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -9265,17 +8869,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_20M_MCS11_CH6</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH60</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2437</v>
+        <v>5300</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040600
-iwpriv wlan0 pt_set_rx 0x1 0x6</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 60 60
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -9329,10 +8938,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D108" t="n">
+        <v>5622</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -9341,17 +8948,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_20M_MCS11_CH11</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH64</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2462</v>
+        <v>5320</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040B00
-iwpriv wlan0 pt_set_rx 0x1 0xB</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 64 64
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -9405,10 +9017,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D109" t="n">
+        <v>5622</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -9417,17 +9027,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_20M_MCS11_CH13</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH100</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2472</v>
+        <v>5500</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00040D00
-iwpriv wlan0 pt_set_rx 0x1 0xD</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 100 100
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -9481,10 +9096,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D110" t="n">
+        <v>5622</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -9493,17 +9106,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_40M_MCS11_CH3</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH104</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2422</v>
+        <v>5520</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00050300
-iwpriv wlan0 pt_set_rx 0x1 0x3</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 104 104
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -9557,10 +9175,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D111" t="n">
+        <v>5622</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -9569,17 +9185,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_40M_MCS11_CH6</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH108</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2437</v>
+        <v>5540</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00050600
-iwpriv wlan0 pt_set_rx 0x1 0x6</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 108 108
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -9633,10 +9254,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D112" t="n">
+        <v>5622</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -9645,17 +9264,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ANT1_2.4G_11ax_40M_MCS11_CH11</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH112</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2462</v>
+        <v>5560</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0000000
-iwpriv wlan0 set_pt_cali 0x00050B00
-iwpriv wlan0 pt_set_rx 0x1 0xB</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 112 112
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -9709,10 +9333,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D113" t="n">
+        <v>5622</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -9721,17 +9343,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH36</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH116</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5180</v>
+        <v>5580</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00142400
-iwpriv wlan0 pt_set_rx 0x1 0x24</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 116 116
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -9785,10 +9412,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D114" t="n">
+        <v>5622</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -9797,17 +9422,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH40</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH132</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5200</v>
+        <v>5660</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00142800
-iwpriv wlan0 pt_set_rx 0x1 0x28</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 132 132
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -9861,10 +9491,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D115" t="n">
+        <v>5622</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -9873,17 +9501,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH44</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH136</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5220</v>
+        <v>5680</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00142C00
-iwpriv wlan0 pt_set_rx 0x1 0x2C</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 136 136
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -9937,10 +9570,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D116" t="n">
+        <v>5622</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -9949,17 +9580,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH48</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH140</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5240</v>
+        <v>5700</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00143000
-iwpriv wlan0 pt_set_rx 0x1 0x30</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 140 140
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -10013,10 +9649,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D117" t="n">
+        <v>5622</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -10025,17 +9659,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH52</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH149</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5260</v>
+        <v>5745</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00143400
-iwpriv wlan0 pt_set_rx 0x1 0x34</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 149 149
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -10089,10 +9728,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D118" t="n">
+        <v>5622</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -10101,17 +9738,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH56</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH153</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5280</v>
+        <v>5765</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00143800
-iwpriv wlan0 pt_set_rx 0x1 0x38</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 153 153
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -10165,10 +9807,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D119" t="n">
+        <v>5622</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -10177,17 +9817,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH60</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH157</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5300</v>
+        <v>5785</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00143C00
-iwpriv wlan0 pt_set_rx 0x1 0x3C</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 157 157
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -10241,10 +9886,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D120" t="n">
+        <v>5622</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -10253,17 +9896,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH64</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH161</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5320</v>
+        <v>5805</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00144000
-iwpriv wlan0 pt_set_rx 0x1 0x40</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 161 161
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -10317,10 +9965,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D121" t="n">
+        <v>5622</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -10329,17 +9975,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH100</t>
+          <t>ANT1_5G_11a_20M_54Mbps_CH165</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5500</v>
+        <v>5825</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00146400
-iwpriv wlan0 pt_set_rx 0x1 0x64</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 165 165
+iwnpi wlan0 set_rate 14
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -10393,10 +10044,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D122" t="n">
+        <v>5622</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -10405,17 +10054,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH104</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH36</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5520</v>
+        <v>5180</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00146800
-iwpriv wlan0 pt_set_rx 0x1 0x68</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 36 36
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -10469,10 +10123,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D123" t="n">
+        <v>5622</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -10481,17 +10133,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH108</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH40</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5540</v>
+        <v>5200</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00146C00
-iwpriv wlan0 pt_set_rx 0x1 0x6C</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 40 40
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -10545,10 +10202,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D124" t="n">
+        <v>5622</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -10557,17 +10212,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH112</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH44</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5560</v>
+        <v>5220</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00147000
-iwpriv wlan0 pt_set_rx 0x1 0x70</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 44 44
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -10621,10 +10281,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D125" t="n">
+        <v>5622</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -10633,17 +10291,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH116</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH48</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5580</v>
+        <v>5240</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00147400
-iwpriv wlan0 pt_set_rx 0x1 0x74</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 48 48
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -10697,10 +10360,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D126" t="n">
+        <v>5622</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -10709,17 +10370,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH132</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH52</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5660</v>
+        <v>5260</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00148400
-iwpriv wlan0 pt_set_rx 0x1 0x84</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 52 52
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -10773,10 +10439,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D127" t="n">
+        <v>5622</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -10785,17 +10449,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH136</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH56</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5680</v>
+        <v>5280</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00148800
-iwpriv wlan0 pt_set_rx 0x1 0x88</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 56 56
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -10849,10 +10518,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D128" t="n">
+        <v>5622</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -10861,17 +10528,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH140</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH60</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00148C00
-iwpriv wlan0 pt_set_rx 0x1 0x8C</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 60 60
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -10925,10 +10597,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D129" t="n">
+        <v>5622</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -10937,17 +10607,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH149</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH64</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5745</v>
+        <v>5320</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00149500
-iwpriv wlan0 pt_set_rx 0x1 0x95</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 64 64
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -11001,10 +10676,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D130" t="n">
+        <v>5622</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -11013,17 +10686,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH153</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH100</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5765</v>
+        <v>5500</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00149900
-iwpriv wlan0 pt_set_rx 0x1 0x99</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 100 100
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -11077,10 +10755,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D131" t="n">
+        <v>5622</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -11089,17 +10765,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH157</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH104</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5785</v>
+        <v>5520</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00149D00
-iwpriv wlan0 pt_set_rx 0x1 0x9D</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 104 104
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -11153,10 +10834,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D132" t="n">
+        <v>5622</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -11165,17 +10844,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH161</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH108</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5805</v>
+        <v>5540</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x0014A100
-iwpriv wlan0 pt_set_rx 0x1 0xA1</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 108 108
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -11229,10 +10913,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D133" t="n">
+        <v>5622</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -11241,17 +10923,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>ANT1_5G_11a_20M_54Mbps_CH165</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH112</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5825</v>
+        <v>5560</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x0014A500
-iwpriv wlan0 pt_set_rx 0x1 0xA5</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 112 112
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -11305,10 +10992,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D134" t="n">
+        <v>5622</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -11317,17 +11002,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH36</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH116</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5180</v>
+        <v>5580</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00142400
-iwpriv wlan0 pt_set_rx 0x1 0x24</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 116 116
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -11381,10 +11071,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D135" t="n">
+        <v>5622</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -11393,17 +11081,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH40</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH132</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5200</v>
+        <v>5660</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00142800
-iwpriv wlan0 pt_set_rx 0x1 0x28</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 132 132
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -11457,10 +11150,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D136" t="n">
+        <v>5622</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -11469,17 +11160,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH44</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH136</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5220</v>
+        <v>5680</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00142C00
-iwpriv wlan0 pt_set_rx 0x1 0x2C</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 136 136
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -11533,10 +11229,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D137" t="n">
+        <v>5622</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -11545,17 +11239,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH48</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH140</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5240</v>
+        <v>5700</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00143000
-iwpriv wlan0 pt_set_rx 0x1 0x30</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 140 140
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -11609,10 +11308,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D138" t="n">
+        <v>5622</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -11621,17 +11318,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH52</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH149</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5260</v>
+        <v>5745</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00143400
-iwpriv wlan0 pt_set_rx 0x1 0x34</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 149 149
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -11685,10 +11387,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D139" t="n">
+        <v>5622</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -11697,17 +11397,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH56</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH153</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5280</v>
+        <v>5765</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00143800
-iwpriv wlan0 pt_set_rx 0x1 0x38</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 153 153
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -11761,10 +11466,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D140" t="n">
+        <v>5622</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -11773,17 +11476,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH60</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH157</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5300</v>
+        <v>5785</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00143C00
-iwpriv wlan0 pt_set_rx 0x1 0x3C</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 157 157
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -11837,10 +11545,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D141" t="n">
+        <v>5622</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -11849,17 +11555,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH64</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH161</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5320</v>
+        <v>5805</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00144000
-iwpriv wlan0 pt_set_rx 0x1 0x40</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 161 161
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -11913,10 +11624,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D142" t="n">
+        <v>5622</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -11925,17 +11634,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH100</t>
+          <t>ANT1_5G_11n_20M_MCS7_CH165</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5500</v>
+        <v>5825</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00146400
-iwpriv wlan0 pt_set_rx 0x1 0x64</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 165 165
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 0
+iwnpi wlan0 set_sbw 0
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -11989,10 +11703,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D143" t="n">
+        <v>5622</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -12001,17 +11713,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH104</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH38</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5520</v>
+        <v>5190</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00146800
-iwpriv wlan0 pt_set_rx 0x1 0x68</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 36 38
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -12065,10 +11782,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D144" t="n">
+        <v>5622</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -12077,17 +11792,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH108</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH46</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5540</v>
+        <v>5230</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00146C00
-iwpriv wlan0 pt_set_rx 0x1 0x6C</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 44 46
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -12141,10 +11861,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D145" t="n">
+        <v>5622</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -12153,17 +11871,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH112</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH54</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5560</v>
+        <v>5270</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00147000
-iwpriv wlan0 pt_set_rx 0x1 0x70</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 52 54
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -12217,10 +11940,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D146" t="n">
+        <v>5622</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -12229,17 +11950,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH116</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH62</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5580</v>
+        <v>5310</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00147400
-iwpriv wlan0 pt_set_rx 0x1 0x74</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 60 62
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -12293,10 +12019,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D147" t="n">
+        <v>5622</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -12305,17 +12029,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH132</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH102</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5660</v>
+        <v>5510</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00148400
-iwpriv wlan0 pt_set_rx 0x1 0x84</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 100 102
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -12369,10 +12098,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D148" t="n">
+        <v>5622</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -12381,17 +12108,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH136</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH110</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5680</v>
+        <v>5550</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00148800
-iwpriv wlan0 pt_set_rx 0x1 0x88</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 108 110
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -12445,10 +12177,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D149" t="n">
+        <v>5622</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -12457,17 +12187,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH140</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH118</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5700</v>
+        <v>5590</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00148C00
-iwpriv wlan0 pt_set_rx 0x1 0x8C</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 116 118
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -12521,10 +12256,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D150" t="n">
+        <v>5622</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -12533,17 +12266,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH149</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH126</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5745</v>
+        <v>5630</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00149500
-iwpriv wlan0 pt_set_rx 0x1 0x95</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 124 126
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -12597,10 +12335,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D151" t="n">
+        <v>5622</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -12609,17 +12345,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH153</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH134</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5765</v>
+        <v>5670</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00149900
-iwpriv wlan0 pt_set_rx 0x1 0x99</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 132 134
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -12673,10 +12414,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
+      <c r="D152" t="n">
+        <v>5622</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -12685,17 +12424,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH157</t>
+          <t>ANT1_5G_11n_40M_MCS7_CH142</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5785</v>
+        <v>5710</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00149D00
-iwpriv wlan0 pt_set_rx 0x1 0x9D</t>
+          <t>iwnpi wlan0 tx_stop
+iwnpi wlan0 start
+iwnpi wlan0 set_chain 1
+iwnpi wlan0 set_channel 140 142
+iwnpi wlan0 set_rate 22
+iwnpi wlan0 set_cbw 1
+iwnpi wlan0 set_sbw 1
+iwnpi wlan0 rx_start</t>
         </is>
       </c>
       <c r="I152" t="n">
@@ -12732,1982 +12476,6 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>152</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH161</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>5805</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x0014A100
-iwpriv wlan0 pt_set_rx 0x1 0xA1</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>100</v>
-      </c>
-      <c r="L153" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
-        <v>100</v>
-      </c>
-      <c r="O153" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="n">
-        <v>100</v>
-      </c>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T153" t="inlineStr"/>
-      <c r="U153" t="n">
-        <v>100</v>
-      </c>
-      <c r="V153" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>153</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_20M_MCS7_CH165</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>5825</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x0014A500
-iwpriv wlan0 pt_set_rx 0x1 0xA5</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>100</v>
-      </c>
-      <c r="L154" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
-        <v>100</v>
-      </c>
-      <c r="O154" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="n">
-        <v>100</v>
-      </c>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="n">
-        <v>100</v>
-      </c>
-      <c r="V154" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>154</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH38</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>5190</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00152600
-iwpriv wlan0 pt_set_rx 0x1 0x26</t>
-        </is>
-      </c>
-      <c r="I155" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>100</v>
-      </c>
-      <c r="L155" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
-        <v>100</v>
-      </c>
-      <c r="O155" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="n">
-        <v>100</v>
-      </c>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="n">
-        <v>100</v>
-      </c>
-      <c r="V155" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>155</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH46</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>5230</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00152E00
-iwpriv wlan0 pt_set_rx 0x1 0x2E</t>
-        </is>
-      </c>
-      <c r="I156" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>100</v>
-      </c>
-      <c r="L156" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
-        <v>100</v>
-      </c>
-      <c r="O156" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="n">
-        <v>100</v>
-      </c>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="n">
-        <v>100</v>
-      </c>
-      <c r="V156" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>156</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH54</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>5270</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00153600
-iwpriv wlan0 pt_set_rx 0x1 0x36</t>
-        </is>
-      </c>
-      <c r="I157" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>100</v>
-      </c>
-      <c r="L157" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
-        <v>100</v>
-      </c>
-      <c r="O157" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="n">
-        <v>100</v>
-      </c>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="n">
-        <v>100</v>
-      </c>
-      <c r="V157" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>157</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH62</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>5310</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00153E00
-iwpriv wlan0 pt_set_rx 0x1 0x3E</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>100</v>
-      </c>
-      <c r="L158" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
-        <v>100</v>
-      </c>
-      <c r="O158" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="n">
-        <v>100</v>
-      </c>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="n">
-        <v>100</v>
-      </c>
-      <c r="V158" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>158</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH102</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>5510</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00156600
-iwpriv wlan0 pt_set_rx 0x1 0x66</t>
-        </is>
-      </c>
-      <c r="I159" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>100</v>
-      </c>
-      <c r="L159" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
-        <v>100</v>
-      </c>
-      <c r="O159" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="n">
-        <v>100</v>
-      </c>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="n">
-        <v>100</v>
-      </c>
-      <c r="V159" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>159</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH110</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>5550</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00156E00
-iwpriv wlan0 pt_set_rx 0x1 0x6E</t>
-        </is>
-      </c>
-      <c r="I160" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>100</v>
-      </c>
-      <c r="L160" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
-        <v>100</v>
-      </c>
-      <c r="O160" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="n">
-        <v>100</v>
-      </c>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="n">
-        <v>100</v>
-      </c>
-      <c r="V160" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>160</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH118</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>5590</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00157600
-iwpriv wlan0 pt_set_rx 0x1 0x76</t>
-        </is>
-      </c>
-      <c r="I161" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>100</v>
-      </c>
-      <c r="L161" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
-        <v>100</v>
-      </c>
-      <c r="O161" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="n">
-        <v>100</v>
-      </c>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="n">
-        <v>100</v>
-      </c>
-      <c r="V161" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>161</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH126</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>5630</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00157E00
-iwpriv wlan0 pt_set_rx 0x1 0x7E</t>
-        </is>
-      </c>
-      <c r="I162" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>100</v>
-      </c>
-      <c r="L162" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
-        <v>100</v>
-      </c>
-      <c r="O162" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="n">
-        <v>100</v>
-      </c>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="n">
-        <v>100</v>
-      </c>
-      <c r="V162" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W162" t="inlineStr"/>
-      <c r="X162" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>162</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH134</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>5670</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00158600
-iwpriv wlan0 pt_set_rx 0x1 0x86</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>100</v>
-      </c>
-      <c r="L163" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
-        <v>100</v>
-      </c>
-      <c r="O163" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="n">
-        <v>100</v>
-      </c>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="n">
-        <v>100</v>
-      </c>
-      <c r="V163" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>163</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH142</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>5710</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00158E00
-iwpriv wlan0 pt_set_rx 0x1 0x8E</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>100</v>
-      </c>
-      <c r="L164" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
-        <v>100</v>
-      </c>
-      <c r="O164" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="n">
-        <v>100</v>
-      </c>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="n">
-        <v>100</v>
-      </c>
-      <c r="V164" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>164</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH151</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>5755</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00159700
-iwpriv wlan0 pt_set_rx 0x1 0x97</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>100</v>
-      </c>
-      <c r="L165" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
-        <v>100</v>
-      </c>
-      <c r="O165" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="n">
-        <v>100</v>
-      </c>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="n">
-        <v>100</v>
-      </c>
-      <c r="V165" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>165</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11n_40M_MCS7_CH159</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>5795</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00159F00
-iwpriv wlan0 pt_set_rx 0x1 0x9F</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>100</v>
-      </c>
-      <c r="L166" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="n">
-        <v>100</v>
-      </c>
-      <c r="O166" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="n">
-        <v>100</v>
-      </c>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="n">
-        <v>100</v>
-      </c>
-      <c r="V166" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>166</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH42</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>5210</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00162A00
-iwpriv wlan0 pt_set_rx 0x1 0x2A</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>100</v>
-      </c>
-      <c r="L167" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
-        <v>100</v>
-      </c>
-      <c r="O167" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="n">
-        <v>100</v>
-      </c>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="n">
-        <v>100</v>
-      </c>
-      <c r="V167" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>167</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH58</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>5290</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00163A00
-iwpriv wlan0 pt_set_rx 0x1 0x3A</t>
-        </is>
-      </c>
-      <c r="I168" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>100</v>
-      </c>
-      <c r="L168" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="n">
-        <v>100</v>
-      </c>
-      <c r="O168" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="n">
-        <v>100</v>
-      </c>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="n">
-        <v>100</v>
-      </c>
-      <c r="V168" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W168" t="inlineStr"/>
-      <c r="X168" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>168</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH106</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>5530</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00166A00
-iwpriv wlan0 pt_set_rx 0x1 0x6A</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>100</v>
-      </c>
-      <c r="L169" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="n">
-        <v>100</v>
-      </c>
-      <c r="O169" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="n">
-        <v>100</v>
-      </c>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" t="n">
-        <v>100</v>
-      </c>
-      <c r="V169" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W169" t="inlineStr"/>
-      <c r="X169" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>169</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH122</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>5610</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00167A00
-iwpriv wlan0 pt_set_rx 0x1 0x7A</t>
-        </is>
-      </c>
-      <c r="I170" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>100</v>
-      </c>
-      <c r="L170" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="n">
-        <v>100</v>
-      </c>
-      <c r="O170" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="n">
-        <v>100</v>
-      </c>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="n">
-        <v>100</v>
-      </c>
-      <c r="V170" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>170</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH138</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>5690</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00168A00
-iwpriv wlan0 pt_set_rx 0x1 0x8A</t>
-        </is>
-      </c>
-      <c r="I171" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>100</v>
-      </c>
-      <c r="L171" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="n">
-        <v>100</v>
-      </c>
-      <c r="O171" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="n">
-        <v>100</v>
-      </c>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="n">
-        <v>100</v>
-      </c>
-      <c r="V171" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>171</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ac_80M_MCS9_CH155</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>5775</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00169B00
-iwpriv wlan0 pt_set_rx 0x1 0x9B</t>
-        </is>
-      </c>
-      <c r="I172" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>100</v>
-      </c>
-      <c r="L172" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="n">
-        <v>100</v>
-      </c>
-      <c r="O172" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="n">
-        <v>100</v>
-      </c>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" t="n">
-        <v>100</v>
-      </c>
-      <c r="V172" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W172" t="inlineStr"/>
-      <c r="X172" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>172</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH42</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>5210</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00162A00
-iwpriv wlan0 pt_set_rx 0x1 0x2A</t>
-        </is>
-      </c>
-      <c r="I173" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>100</v>
-      </c>
-      <c r="L173" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="n">
-        <v>100</v>
-      </c>
-      <c r="O173" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="n">
-        <v>100</v>
-      </c>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" t="n">
-        <v>100</v>
-      </c>
-      <c r="V173" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>173</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH58</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>5290</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00163A00
-iwpriv wlan0 pt_set_rx 0x1 0x3A</t>
-        </is>
-      </c>
-      <c r="I174" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>100</v>
-      </c>
-      <c r="L174" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="n">
-        <v>100</v>
-      </c>
-      <c r="O174" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="n">
-        <v>100</v>
-      </c>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="n">
-        <v>100</v>
-      </c>
-      <c r="V174" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W174" t="inlineStr"/>
-      <c r="X174" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>174</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH106</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>5530</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00166A00
-iwpriv wlan0 pt_set_rx 0x1 0x6A</t>
-        </is>
-      </c>
-      <c r="I175" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>100</v>
-      </c>
-      <c r="L175" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="n">
-        <v>100</v>
-      </c>
-      <c r="O175" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="n">
-        <v>100</v>
-      </c>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="n">
-        <v>100</v>
-      </c>
-      <c r="V175" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W175" t="inlineStr"/>
-      <c r="X175" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>175</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH122</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>5610</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00167A00
-iwpriv wlan0 pt_set_rx 0x1 0x7A</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>100</v>
-      </c>
-      <c r="L176" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="n">
-        <v>100</v>
-      </c>
-      <c r="O176" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="n">
-        <v>100</v>
-      </c>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="n">
-        <v>100</v>
-      </c>
-      <c r="V176" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W176" t="inlineStr"/>
-      <c r="X176" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>176</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH138</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>5690</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00168A00
-iwpriv wlan0 pt_set_rx 0x1 0x8A</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>100</v>
-      </c>
-      <c r="L177" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="n">
-        <v>100</v>
-      </c>
-      <c r="O177" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="n">
-        <v>100</v>
-      </c>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" t="n">
-        <v>100</v>
-      </c>
-      <c r="V177" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W177" t="inlineStr"/>
-      <c r="X177" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>177</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>AMLW2</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>WIFI_RX</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>ANT1_5G_11ax_80M_MCS11_CH155</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>5775</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>iwpriv wlan0 set_pt_cali 0xc0100000
-iwpriv wlan0 set_pt_cali 0x00169B00
-iwpriv wlan0 pt_set_rx 0x1 0x9B</t>
-        </is>
-      </c>
-      <c r="I178" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>100</v>
-      </c>
-      <c r="L178" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-      <c r="N178" t="n">
-        <v>100</v>
-      </c>
-      <c r="O178" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="n">
-        <v>100</v>
-      </c>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>-100</v>
-      </c>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="n">
-        <v>100</v>
-      </c>
-      <c r="V178" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W178" t="inlineStr"/>
-      <c r="X178" t="n">
         <v>100</v>
       </c>
     </row>
